--- a/vtune_results.xlsx
+++ b/vtune_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dries\Documents\GitHub\Thesis-dynamic-networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FE5D90-A208-4EF2-91A2-DED200A16CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A773B9E-F86B-4F7B-802A-F4549C362A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{A2BFD032-DAFB-487E-9246-F8F6969A8790}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2BFD032-DAFB-487E-9246-F8F6969A8790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="53">
   <si>
     <t>test_CanParl</t>
   </si>
@@ -193,6 +193,9 @@
   <si>
     <t>test_tgblReview</t>
   </si>
+  <si>
+    <t>test_wikipedia</t>
+  </si>
 </sst>
 </file>
 
@@ -233,10 +236,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DC005B-172F-4B88-B715-A9D88628095C}">
-  <dimension ref="A1:CP125"/>
+  <dimension ref="A1:CX125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA89" workbookViewId="0">
-      <selection activeCell="CH64" sqref="CH64:CL119"/>
+    <sheetView tabSelected="1" topLeftCell="CU91" workbookViewId="0">
+      <selection activeCell="DA114" sqref="DA114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +604,11 @@
     <col min="87" max="87" width="24.85546875" customWidth="1"/>
     <col min="88" max="88" width="35.85546875" customWidth="1"/>
     <col min="89" max="89" width="24.5703125" customWidth="1"/>
+    <col min="96" max="96" width="1.5703125" style="3" customWidth="1"/>
+    <col min="98" max="98" width="19.140625" customWidth="1"/>
+    <col min="99" max="99" width="21.7109375" customWidth="1"/>
+    <col min="100" max="100" width="40.7109375" customWidth="1"/>
+    <col min="101" max="101" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90" x14ac:dyDescent="0.25">
@@ -3113,7 +3122,7 @@
         <v>16.099</v>
       </c>
     </row>
-    <row r="49" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:98" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>6</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:98" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>26</v>
       </c>
@@ -3223,7 +3232,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:98" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>26</v>
       </c>
@@ -3280,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:98" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>41</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="53" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:98" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>47</v>
       </c>
@@ -3422,7 +3431,7 @@
         <v>0.49900000000000233</v>
       </c>
     </row>
-    <row r="54" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:98" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>10</v>
       </c>
@@ -3551,7 +3560,7 @@
       </c>
       <c r="CF54" s="1"/>
     </row>
-    <row r="55" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:98" x14ac:dyDescent="0.25">
       <c r="AI55" s="1"/>
       <c r="AU55" s="1"/>
       <c r="BG55" s="1"/>
@@ -3569,7 +3578,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:98" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>30</v>
       </c>
@@ -3626,7 +3635,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:98" x14ac:dyDescent="0.25">
       <c r="O57" t="s">
         <v>37</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:98" x14ac:dyDescent="0.25">
       <c r="P58" t="s">
         <v>38</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:98" x14ac:dyDescent="0.25">
       <c r="P59" t="s">
         <v>39</v>
       </c>
@@ -3851,20 +3860,22 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:98" x14ac:dyDescent="0.25">
       <c r="AU60" s="1"/>
       <c r="BG60" s="1"/>
     </row>
-    <row r="61" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:98" x14ac:dyDescent="0.25">
       <c r="AU61" s="1"/>
       <c r="BG61" s="1"/>
     </row>
-    <row r="62" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:98" x14ac:dyDescent="0.25">
       <c r="AU62" s="1"/>
       <c r="BG62" s="1"/>
     </row>
-    <row r="63" spans="1:94" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="CR63" s="3"/>
+    </row>
+    <row r="64" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -3894,8 +3905,11 @@
       <c r="CH64" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CT64" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="2:102" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>1</v>
       </c>
@@ -3925,8 +3939,11 @@
       <c r="CI65" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CU65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:102" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>2</v>
       </c>
@@ -3959,8 +3976,14 @@
       <c r="CK66">
         <v>133.28200000000001</v>
       </c>
-    </row>
-    <row r="67" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CV66" t="s">
+        <v>2</v>
+      </c>
+      <c r="CW66">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>4</v>
       </c>
@@ -4014,8 +4037,14 @@
       <c r="CL67">
         <v>20.395</v>
       </c>
-    </row>
-    <row r="68" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW67" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>5</v>
       </c>
@@ -4069,8 +4098,14 @@
       <c r="CL68">
         <v>62.917000000000002</v>
       </c>
-    </row>
-    <row r="69" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW68" t="s">
+        <v>5</v>
+      </c>
+      <c r="CX68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>6</v>
       </c>
@@ -4124,8 +4159,14 @@
       <c r="CL69">
         <v>4.359</v>
       </c>
-    </row>
-    <row r="70" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW69" t="s">
+        <v>6</v>
+      </c>
+      <c r="CX69">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>7</v>
       </c>
@@ -4179,8 +4220,14 @@
       <c r="CL70">
         <v>2.9910000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW70" t="s">
+        <v>7</v>
+      </c>
+      <c r="CX70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>8</v>
       </c>
@@ -4234,8 +4281,14 @@
       <c r="CL71">
         <v>34.868000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW71" t="s">
+        <v>8</v>
+      </c>
+      <c r="CX71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>9</v>
       </c>
@@ -4289,8 +4342,14 @@
       <c r="CL72">
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="73" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW72" t="s">
+        <v>45</v>
+      </c>
+      <c r="CX72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>10</v>
       </c>
@@ -4344,8 +4403,14 @@
       <c r="CL73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW73" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>10</v>
       </c>
@@ -4399,8 +4464,14 @@
       <c r="CL74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW74" t="s">
+        <v>10</v>
+      </c>
+      <c r="CX74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>11</v>
       </c>
@@ -4454,8 +4525,14 @@
       <c r="CL75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW75" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX75">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>41</v>
       </c>
@@ -4509,8 +4586,14 @@
       <c r="CL76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW76" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>49</v>
       </c>
@@ -4564,8 +4647,14 @@
       <c r="CL77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW77" t="s">
+        <v>41</v>
+      </c>
+      <c r="CX77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>12</v>
       </c>
@@ -4619,15 +4708,21 @@
       <c r="CL78">
         <v>1.4430000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW78" t="s">
+        <v>49</v>
+      </c>
+      <c r="CX78">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:102" x14ac:dyDescent="0.25">
       <c r="AI79" s="1"/>
       <c r="AU79" s="1"/>
       <c r="BG79" s="1"/>
       <c r="BT79" s="1"/>
       <c r="CF79" s="1"/>
     </row>
-    <row r="80" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:102" x14ac:dyDescent="0.25">
       <c r="O80" t="s">
         <v>3</v>
       </c>
@@ -4675,8 +4770,14 @@
       <c r="CK80">
         <v>4.2619999999999996</v>
       </c>
-    </row>
-    <row r="81" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CV80" t="s">
+        <v>3</v>
+      </c>
+      <c r="CW80">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:102" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -4689,7 +4790,7 @@
       <c r="BT81" s="1"/>
       <c r="CF81" s="1"/>
     </row>
-    <row r="82" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:102" x14ac:dyDescent="0.25">
       <c r="N82" t="s">
         <v>15</v>
       </c>
@@ -4699,7 +4800,7 @@
       <c r="BT82" s="1"/>
       <c r="CF82" s="1"/>
     </row>
-    <row r="83" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:102" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>15</v>
       </c>
@@ -4729,8 +4830,11 @@
       <c r="CI83" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="84" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CU83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="2:102" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>16</v>
       </c>
@@ -4766,8 +4870,11 @@
       <c r="CJ84" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CV84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
         <v>17</v>
       </c>
@@ -4821,8 +4928,14 @@
       <c r="CL85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW85" t="s">
+        <v>17</v>
+      </c>
+      <c r="CX85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>18</v>
       </c>
@@ -4876,8 +4989,14 @@
       <c r="CL86">
         <v>11.747999999999999</v>
       </c>
-    </row>
-    <row r="87" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW86" t="s">
+        <v>18</v>
+      </c>
+      <c r="CX86">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>19</v>
       </c>
@@ -4931,8 +5050,14 @@
       <c r="CL87">
         <v>51.97</v>
       </c>
-    </row>
-    <row r="88" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW87" t="s">
+        <v>19</v>
+      </c>
+      <c r="CX87">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>20</v>
       </c>
@@ -4986,8 +5111,14 @@
       <c r="CL88">
         <v>2.0659999999999998</v>
       </c>
-    </row>
-    <row r="89" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW88" t="s">
+        <v>20</v>
+      </c>
+      <c r="CX88">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="89" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>21</v>
       </c>
@@ -5041,8 +5172,14 @@
       <c r="CL89">
         <v>1.387</v>
       </c>
-    </row>
-    <row r="90" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW89" t="s">
+        <v>21</v>
+      </c>
+      <c r="CX89">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>22</v>
       </c>
@@ -5096,8 +5233,14 @@
       <c r="CL90">
         <v>6.3710000000000004</v>
       </c>
-    </row>
-    <row r="91" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW90" t="s">
+        <v>22</v>
+      </c>
+      <c r="CX90">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="91" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>23</v>
       </c>
@@ -5145,8 +5288,14 @@
       <c r="CL91">
         <v>51.503999999999998</v>
       </c>
-    </row>
-    <row r="92" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW91" t="s">
+        <v>23</v>
+      </c>
+      <c r="CX91">
+        <v>1.5620000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:102" x14ac:dyDescent="0.25">
       <c r="N92" t="s">
         <v>24</v>
       </c>
@@ -5156,7 +5305,7 @@
       <c r="BT92" s="1"/>
       <c r="CF92" s="1"/>
     </row>
-    <row r="93" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:102" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>24</v>
       </c>
@@ -5186,8 +5335,11 @@
       <c r="CI93" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="94" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CU93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="2:102" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>25</v>
       </c>
@@ -5220,8 +5372,11 @@
       <c r="CJ94" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="95" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CV94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D95" s="2" t="s">
         <v>46</v>
       </c>
@@ -5275,8 +5430,14 @@
       <c r="CL95">
         <v>0.23200000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="CX95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>6</v>
       </c>
@@ -5330,8 +5491,14 @@
       <c r="CL96">
         <v>1.4019999999999999</v>
       </c>
-    </row>
-    <row r="97" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW96" t="s">
+        <v>6</v>
+      </c>
+      <c r="CX96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
         <v>34</v>
       </c>
@@ -5385,8 +5552,14 @@
       <c r="CL97">
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="98" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW97" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX97">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>35</v>
       </c>
@@ -5440,8 +5613,14 @@
       <c r="CL98">
         <v>0.45200000000000001</v>
       </c>
-    </row>
-    <row r="99" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW98" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>33</v>
       </c>
@@ -5495,8 +5674,14 @@
       <c r="CL99">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="100" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW99" t="s">
+        <v>35</v>
+      </c>
+      <c r="CX99">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>33</v>
       </c>
@@ -5550,8 +5735,14 @@
       <c r="CL100">
         <v>0.42599999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW100" t="s">
+        <v>33</v>
+      </c>
+      <c r="CX100">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>26</v>
       </c>
@@ -5605,8 +5796,14 @@
       <c r="CL101">
         <v>9.0730000000000004</v>
       </c>
-    </row>
-    <row r="102" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW101" t="s">
+        <v>33</v>
+      </c>
+      <c r="CX101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>19</v>
       </c>
@@ -5660,8 +5857,14 @@
       <c r="CL102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW102" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX102">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>36</v>
       </c>
@@ -5709,8 +5912,14 @@
       <c r="CL103">
         <v>72.522000000000006</v>
       </c>
-    </row>
-    <row r="104" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW103" t="s">
+        <v>19</v>
+      </c>
+      <c r="CX103">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="104" spans="2:102" x14ac:dyDescent="0.25">
       <c r="AI104" s="1"/>
       <c r="AU104" s="1"/>
       <c r="BG104" s="1"/>
@@ -5728,15 +5937,21 @@
       <c r="CL104">
         <v>5.6870000000000003</v>
       </c>
-    </row>
-    <row r="105" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW104" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX104">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="105" spans="2:102" x14ac:dyDescent="0.25">
       <c r="AI105" s="1"/>
       <c r="AU105" s="1"/>
       <c r="BG105" s="1"/>
       <c r="BT105" s="1"/>
       <c r="CF105" s="1"/>
     </row>
-    <row r="106" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:102" x14ac:dyDescent="0.25">
       <c r="AI106" s="1"/>
       <c r="AU106" s="1"/>
       <c r="BG106" s="1"/>
@@ -5745,8 +5960,11 @@
       <c r="CI106" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="107" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CU106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="2:102" x14ac:dyDescent="0.25">
       <c r="AI107" s="1"/>
       <c r="AU107" s="1"/>
       <c r="BG107" s="1"/>
@@ -5755,8 +5973,11 @@
       <c r="CJ107" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="108" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CV107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="2:102" x14ac:dyDescent="0.25">
       <c r="AI108" s="1"/>
       <c r="AU108" s="1"/>
       <c r="BG108" s="1"/>
@@ -5771,8 +5992,14 @@
       <c r="CL108">
         <v>3.1579999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW108" t="s">
+        <v>29</v>
+      </c>
+      <c r="CX108">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="109" spans="2:102" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>27</v>
       </c>
@@ -5805,8 +6032,14 @@
       <c r="CL109">
         <v>16.099</v>
       </c>
-    </row>
-    <row r="110" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW109" t="s">
+        <v>6</v>
+      </c>
+      <c r="CX109">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:102" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>28</v>
       </c>
@@ -5842,8 +6075,14 @@
       <c r="CL110">
         <v>0.69799999999999995</v>
       </c>
-    </row>
-    <row r="111" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW110" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX110">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>29</v>
       </c>
@@ -5897,8 +6136,14 @@
       <c r="CL111">
         <v>0.28100000000000003</v>
       </c>
-    </row>
-    <row r="112" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW111" t="s">
+        <v>26</v>
+      </c>
+      <c r="CX111">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>6</v>
       </c>
@@ -5952,8 +6197,14 @@
       <c r="CL112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW112" t="s">
+        <v>41</v>
+      </c>
+      <c r="CX112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>26</v>
       </c>
@@ -6007,8 +6258,14 @@
       <c r="CL113">
         <v>1.67</v>
       </c>
-    </row>
-    <row r="114" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW113" t="s">
+        <v>10</v>
+      </c>
+      <c r="CX113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>26</v>
       </c>
@@ -6055,17 +6312,20 @@
         <v>0</v>
       </c>
       <c r="CF114" s="1"/>
-      <c r="CH114">
-        <v>1</v>
-      </c>
       <c r="CK114" t="s">
         <v>47</v>
       </c>
       <c r="CL114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW114" t="s">
+        <v>47</v>
+      </c>
+      <c r="CX114">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>41</v>
       </c>
@@ -6113,7 +6373,7 @@
       </c>
       <c r="CF115" s="1"/>
     </row>
-    <row r="116" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>47</v>
       </c>
@@ -6163,8 +6423,11 @@
       <c r="CI116" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="117" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CU116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="2:102" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>10</v>
       </c>
@@ -6208,8 +6471,11 @@
       <c r="CJ117" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="118" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CV117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="2:102" x14ac:dyDescent="0.25">
       <c r="AI118" s="1"/>
       <c r="AU118" s="1"/>
       <c r="BG118" s="1"/>
@@ -6223,8 +6489,14 @@
       <c r="CL118">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="119" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW118" t="s">
+        <v>38</v>
+      </c>
+      <c r="CX118">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="2:102" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>30</v>
       </c>
@@ -6262,8 +6534,14 @@
       <c r="CL119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:90" x14ac:dyDescent="0.25">
+      <c r="CW119" t="s">
+        <v>39</v>
+      </c>
+      <c r="CX119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:102" x14ac:dyDescent="0.25">
       <c r="O120" t="s">
         <v>37</v>
       </c>
@@ -6289,7 +6567,7 @@
       </c>
       <c r="CF120" s="1"/>
     </row>
-    <row r="121" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:102" x14ac:dyDescent="0.25">
       <c r="P121" t="s">
         <v>38</v>
       </c>
@@ -6329,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:102" x14ac:dyDescent="0.25">
       <c r="P122" t="s">
         <v>39</v>
       </c>
@@ -6363,15 +6641,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:102" x14ac:dyDescent="0.25">
       <c r="AU123" s="1"/>
       <c r="BG123" s="1"/>
     </row>
-    <row r="124" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:102" x14ac:dyDescent="0.25">
       <c r="AU124" s="1"/>
       <c r="BG124" s="1"/>
     </row>
-    <row r="125" spans="2:90" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:102" x14ac:dyDescent="0.25">
       <c r="AU125" s="1"/>
       <c r="BG125" s="1"/>
     </row>

--- a/vtune_results.xlsx
+++ b/vtune_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dries\Documents\GitHub\Thesis-dynamic-networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A773B9E-F86B-4F7B-802A-F4549C362A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F189C9BC-89E2-4BE7-AA2F-745D13A49CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A2BFD032-DAFB-487E-9246-F8F6969A8790}"/>
+    <workbookView minimized="1" xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{A2BFD032-DAFB-487E-9246-F8F6969A8790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="54">
   <si>
     <t>test_CanParl</t>
   </si>
@@ -196,6 +196,9 @@
   <si>
     <t>test_wikipedia</t>
   </si>
+  <si>
+    <t>basic_string</t>
+  </si>
 </sst>
 </file>
 
@@ -236,11 +239,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44DC005B-172F-4B88-B715-A9D88628095C}">
   <dimension ref="A1:CX125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU91" workbookViewId="0">
-      <selection activeCell="DA114" sqref="DA114"/>
+    <sheetView tabSelected="1" topLeftCell="AC94" workbookViewId="0">
+      <selection activeCell="AO111" sqref="AO111:AO117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +606,7 @@
     <col min="87" max="87" width="24.85546875" customWidth="1"/>
     <col min="88" max="88" width="35.85546875" customWidth="1"/>
     <col min="89" max="89" width="24.5703125" customWidth="1"/>
-    <col min="96" max="96" width="1.5703125" style="3" customWidth="1"/>
+    <col min="96" max="96" width="1.5703125" style="1" customWidth="1"/>
     <col min="98" max="98" width="19.140625" customWidth="1"/>
     <col min="99" max="99" width="21.7109375" customWidth="1"/>
     <col min="100" max="100" width="40.7109375" customWidth="1"/>
@@ -3872,9 +3874,7 @@
       <c r="AU62" s="1"/>
       <c r="BG62" s="1"/>
     </row>
-    <row r="63" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="CR63" s="3"/>
-    </row>
+    <row r="63" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
@@ -5410,8 +5410,8 @@
         <v>0</v>
       </c>
       <c r="BG95" s="1"/>
-      <c r="BL95" s="2" t="s">
-        <v>46</v>
+      <c r="BL95" t="s">
+        <v>6</v>
       </c>
       <c r="BM95">
         <v>0</v>
@@ -5472,10 +5472,10 @@
       </c>
       <c r="BG96" s="1"/>
       <c r="BL96" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="BM96">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
       <c r="BT96" s="1"/>
       <c r="BY96" t="s">
@@ -5533,10 +5533,10 @@
       </c>
       <c r="BG97" s="1"/>
       <c r="BL97" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="BM97">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
       <c r="BT97" s="1"/>
       <c r="BY97" t="s">
